--- a/SWAG LABS MANUAL TEST CASE/SWAG LABS MANUAL TEST CASE.xlsx
+++ b/SWAG LABS MANUAL TEST CASE/SWAG LABS MANUAL TEST CASE.xlsx
@@ -86,7 +86,7 @@
     <t>TS_S_001</t>
   </si>
   <si>
-    <t>Verify the sign in functionality 
+    <t>Verify the login in functionality 
 of Swag Lab Website</t>
   </si>
   <si>
@@ -117,7 +117,7 @@
     <t>Products</t>
   </si>
   <si>
-    <t>Verify the sign in functionality 
+    <t>Verify the login in functionality 
 of Swag Lab Website.</t>
   </si>
   <si>
@@ -988,13 +988,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1319,8 +1316,8 @@
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1499,7 +1496,7 @@
       <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1528,7 +1525,7 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1557,7 +1554,7 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
